--- a/xlsx/伊拉克战争_intext.xlsx
+++ b/xlsx/伊拉克战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="658">
   <si>
     <t>伊拉克战争</t>
   </si>
@@ -29,13 +29,13 @@
     <t>伊拉克战争 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊拉克战争</t>
+    <t>政策_政策_美国_伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
+    <t>机器翻译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86%C2%B7%E6%B5%B7%E7%8F%8A</t>
   </si>
   <si>
-    <t>薩達姆·海珊</t>
+    <t>萨达姆·海珊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E4%BA%A1</t>
   </si>
   <si>
-    <t>陣亡</t>
+    <t>阵亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E7%A9%86%E8%96%A9%E5%B8%83%C2%B7%E6%89%8E%E5%8D%A1%E7%B6%AD</t>
   </si>
   <si>
-    <t>阿布·穆薩布·扎卡維</t>
+    <t>阿布·穆萨布·扎卡维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%C2%B7%E8%89%BE%E5%B0%A4%E5%8D%9C%C2%B7%E7%A9%86%E5%93%88%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>阿布·艾尤卜·穆哈吉爾</t>
+    <t>阿布·艾尤卜·穆哈吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7W%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%B5%AB%E8%BF%AA%E8%BB%8D</t>
   </si>
   <si>
-    <t>邁赫迪軍</t>
+    <t>迈赫迪军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%BE%B7%E6%97%8F</t>
   </si>
   <si>
-    <t>庫德族</t>
+    <t>库德族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E4%BA%BA%E8%BB%8D%E4%BA%8B%E6%9C%8D%E5%8B%99%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>私人軍事服務公司</t>
+    <t>私人军事服务公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E4%B9%8B%E5%AD%90</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>澳洲陸軍</t>
+    <t>澳洲陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>波蘭軍隊</t>
+    <t>波兰军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%80%BB%E7%BB%9F</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC1%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%81%A0%E5%BE%81%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國第1海軍陸戰遠征隊</t>
+    <t>美国第1海军陆战远征队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC173%E7%A9%BA%E9%99%8D%E6%97%85</t>
   </si>
   <si>
-    <t>美國陸軍第173空降旅</t>
+    <t>美国陆军第173空降旅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%BE%B7</t>
@@ -335,63 +335,60 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>伊拉克國家博物館</t>
+    <t>伊拉克国家博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>美索不達米亞</t>
+    <t>美索不达米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98</t>
   </si>
   <si>
-    <t>財團</t>
+    <t>财团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>奧巴馬</t>
+    <t>奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊斯蘭國</t>
+    <t>伊斯兰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國太空總署</t>
+    <t>美国太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94</t>
   </si>
   <si>
-    <t>巴格達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E6%81%90%E6%80%96%E8%A2%AD%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E6%83%A1%E8%BB%B8%E5%BF%83%E5%9C%8B</t>
   </si>
   <si>
-    <t>邪惡軸心國</t>
+    <t>邪恶轴心国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E7%AC%AC1441%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安全理事會第1441號決議</t>
+    <t>联合国安全理事会第1441号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E6%9D%80%E4%BC%A4%E6%80%A7%E6%AD%A6%E5%99%A8</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E5%B8%83%E6%AE%8A</t>
   </si>
   <si>
-    <t>喬治布殊</t>
+    <t>乔治布殊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7</t>
@@ -443,19 +440,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B0%BC%C2%B7%E5%B8%83%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>東尼·布萊爾</t>
+    <t>东尼·布莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7T%C2%B7%E4%BD%9B%E6%9E%97</t>
   </si>
   <si>
-    <t>麥可·T·佛林</t>
+    <t>麦可·T·佛林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1%E8%89%BE%E5%B8%83%E8%98%AD</t>
   </si>
   <si>
-    <t>M1艾布蘭</t>
+    <t>M1艾布兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%A5%A5%E5%8D%8A%E5%B2%9B</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BF%AA%E8%A5%BF%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>卡迪西亞省</t>
+    <t>卡迪西亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E5%8B%95%E9%83%A8</t>
   </si>
   <si>
-    <t>特別行動部</t>
+    <t>特别行动部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joint_Special_Operations_Command</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>庫爾德部隊</t>
+    <t>库尔德部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%BA%AB%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>伊拉克庫德斯坦</t>
+    <t>伊拉克库德斯坦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tommy_Franks</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%A9%9F%E5%8B%95%E5%8F%8D%E6%87%89%E4%BD%9C%E6%88%B0%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>波蘭機動反應作戰部隊</t>
+    <t>波兰机动反应作战部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -533,37 +530,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家海軍</t>
+    <t>英国皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>波蘭海軍</t>
+    <t>波兰海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>澳洲皇家海軍</t>
+    <t>澳洲皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國陸軍</t>
+    <t>英国陆军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1st_Battalion_7th_Marines</t>
@@ -575,31 +572,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>海軍陸戰隊</t>
+    <t>海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%AC%AC3%E6%AD%A5%E5%85%B5%E5%B8%AB</t>
   </si>
   <si>
-    <t>美國陸軍第3步兵師</t>
+    <t>美国陆军第3步兵师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC1%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%81%A0%E5%BE%81%E8%BB%8D</t>
   </si>
   <si>
-    <t>第1海軍陸戰遠征軍</t>
+    <t>第1海军陆战远征军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%AC%AC1%E8%A3%9D%E7%94%B2%E5%B8%AB</t>
   </si>
   <si>
-    <t>英國第1裝甲師</t>
+    <t>英国第1装甲师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E5%B8%AB</t>
   </si>
   <si>
-    <t>第一海軍陸戰師</t>
+    <t>第一海军陆战师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%A5%BF%E9%87%8C%E8%80%B6</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%99%BC%E6%8B%89%E5%BA%95%E6%B2%B3</t>
   </si>
   <si>
-    <t>幼發拉底河</t>
+    <t>幼发拉底河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -635,13 +632,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%88%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>復興黨</t>
+    <t>复兴党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%A7%92%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>五角大廈</t>
+    <t>五角大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%85%8B%E9%87%8C%E7%89%B9</t>
@@ -659,19 +656,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E9%A7%90%E4%BC%8A%E6%8B%89%E5%85%8B%E8%87%A8%E6%99%82%E7%AE%A1%E7%90%86%E7%95%B6%E5%B1%80</t>
   </si>
   <si>
-    <t>聯盟駐伊拉克臨時管理當局</t>
+    <t>联盟驻伊拉克临时管理当局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%8D%80</t>
   </si>
   <si>
-    <t>綠區</t>
+    <t>绿区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BC%8A%C2%B7%E5%8A%A0%E7%B4%8D</t>
   </si>
   <si>
-    <t>傑伊·加納</t>
+    <t>杰伊·加纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E5%B8%83%E9%9B%B7%E9%BB%98</t>
@@ -689,73 +686,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D%E4%BD%94%E9%A0%98%E4%BC%8A%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>美軍佔領伊拉克</t>
+    <t>美军佔领伊拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯號航空母艦</t>
+    <t>亚伯拉罕·林肯号航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%85%B1%E5%92%8C%E5%9C%8B%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>伊拉克共和國衛隊</t>
+    <t>伊拉克共和国卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>巴格達省</t>
+    <t>巴格达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%B4%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>安巴爾省</t>
+    <t>安巴尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E8%B5%AB%E4%B8%81%E7%9C%81</t>
   </si>
   <si>
-    <t>薩拉赫丁省</t>
+    <t>萨拉赫丁省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AB%E6%93%8A%E7%A0%B2</t>
   </si>
   <si>
-    <t>迫擊砲</t>
+    <t>迫击砲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%BD%88</t>
   </si>
   <si>
-    <t>導彈</t>
+    <t>导弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>自殺攻擊</t>
+    <t>自杀攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%99%E6%93%8A%E6%89%8B</t>
   </si>
   <si>
-    <t>狙擊手</t>
+    <t>狙击手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E6%98%93%E7%88%86%E7%82%B8%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>簡易爆炸裝置</t>
+    <t>简易爆炸装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E7%82%B8%E5%BC%B9</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E6%93%8A%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>突擊步槍</t>
+    <t>突击步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD%E7%AD%92</t>
@@ -809,21 +806,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E4%BB%A3%C2%B7%E6%B5%B7%E7%8F%8A</t>
   </si>
   <si>
-    <t>烏代·海珊</t>
+    <t>乌代·海珊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%9B%9F%E9%A9%BB%E4%BC%8A%E6%8B%89%E5%85%8B%E4%B8%B4%E6%97%B6%E7%AE%A1%E7%90%86%E5%BD%93%E5%B1%80</t>
   </si>
   <si>
-    <t>联盟驻伊拉克临时管理当局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E5%8F%B6%E6%B4%BE</t>
   </si>
   <si>
-    <t>什叶派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%8D%A2%E6%9D%B0</t>
   </si>
   <si>
@@ -845,21 +836,18 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>三角洲部隊</t>
+    <t>三角洲部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86</t>
   </si>
   <si>
-    <t>薩達姆</t>
+    <t>萨达姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
@@ -875,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -893,13 +878,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -953,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -977,13 +962,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC_(%E8%BB%8D%E7%94%A8%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>悍馬 (軍用汽車)</t>
+    <t>悍马 (军用汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>愛國者飛彈</t>
+    <t>爱国者飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -995,31 +980,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>布萊爾</t>
+    <t>布莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%BB%91%E6%B0%B4</t>
   </si>
   <si>
-    <t>美國黑水</t>
+    <t>美国黑水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%88%A9%E5%9F%BA</t>
   </si>
   <si>
-    <t>馬利基</t>
+    <t>马利基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
@@ -1037,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E4%BC%8A%E6%8B%89%E5%85%8B%E5%A4%A7%E4%BD%BF%E9%A4%A8</t>
   </si>
   <si>
-    <t>美國駐伊拉克大使館</t>
+    <t>美国驻伊拉克大使馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
@@ -1049,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E7%88%BE%E8%80%83%E7%89%B9%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>齊爾考特報告</t>
+    <t>齐尔考特报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WMD</t>
@@ -1097,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/B-2%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-2轟炸機</t>
+    <t>B-2轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F-117</t>
@@ -1121,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/A-10_%E9%9B%B7%E9%9C%86%E4%BA%8C%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-10 雷霆二式攻擊機</t>
+    <t>A-10 雷霆二式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E5%A2%9E%E7%A8%8B%E6%A9%9F%E5%8B%95%E6%88%B0%E8%A1%93%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>重型增程機動戰術卡車</t>
+    <t>重型增程机动战术卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LAV-25%E8%A3%9D%E7%94%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>LAV-25裝甲車</t>
+    <t>LAV-25装甲车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M2%E5%B8%83%E9%9B%B7%E5%BE%B7%E5%88%A9</t>
@@ -1145,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%8D%E9%A6%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>悍馬車</t>
+    <t>悍马车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M109%E8%87%AA%E8%B5%B0%E7%82%AE</t>
@@ -1163,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E7%AA%81%E6%93%8A%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>兩棲突擊載具</t>
+    <t>两栖突击载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9B%BE%E6%88%B0%E9%AC%A5%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神盾戰鬥系統</t>
+    <t>神盾战斗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%B1%B3%E8%8C%B2%E7%B4%9A%E6%A0%B8%E5%8B%95%E5%8A%9B%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>尼米茲級核動力航空母艦</t>
+    <t>尼米兹级核动力航空母舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E6%96%A7%E5%B7%A1%E8%88%AA%E5%AF%BC%E5%BC%B9</t>
@@ -1205,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/OH-6A%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>OH-6A直升機</t>
+    <t>OH-6A直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UH-60%E9%BB%91%E9%B7%B9%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>UH-60黑鷹直升機</t>
+    <t>UH-60黑鹰直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%96%AF%E7%89%B9%E5%85%B0%E5%B1%B1%E7%8C%AB%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -1223,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/OH-58%E5%A5%87%E5%A5%A7%E7%93%A6%E5%81%B5%E5%AF%9F%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>OH-58奇奧瓦偵察直升機</t>
+    <t>OH-58奇奥瓦侦察直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%B0%8F%E5%B9%B4%E9%91%91</t>
@@ -1235,9 +1217,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8D%AB%E9%98%9F</t>
   </si>
   <si>
-    <t>伊拉克共和国卫队</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E5%9B%9A%E9%97%A8%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
@@ -1259,31 +1238,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%99%B8%E6%82%8D%E5%B0%87</t>
   </si>
   <si>
-    <t>海陸悍將</t>
+    <t>海陆悍将</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>反恐戰場</t>
+    <t>反恐战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%8A%E8%A8%80%E4%B9%8B%E8%BB%80</t>
   </si>
   <si>
-    <t>謊言之軀</t>
+    <t>谎言之躯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%86%E5%BD%88%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>拆彈部隊</t>
+    <t>拆弹部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E4%B8%80%E5%B0%81%E6%83%85%E6%9B%B8</t>
   </si>
   <si>
-    <t>最後一封情書</t>
+    <t>最后一封情书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E5%8C%BA_(%E7%94%B5%E5%BD%B1)</t>
@@ -1295,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B8%E9%81%8B%E7%AC%A6</t>
   </si>
   <si>
-    <t>幸運符</t>
+    <t>幸运符</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%99%E5%87%BB%E6%89%8B</t>
@@ -1313,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B0%8F911</t>
   </si>
   <si>
-    <t>華氏911</t>
+    <t>华氏911</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E6%88%AE%E4%B8%80%E4%BB%A3</t>
@@ -1325,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E6%A1%90%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>宰桐部隊</t>
+    <t>宰桐部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1391,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%93%B4%E5%BC%B5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿拉伯擴張戰爭</t>
+    <t>阿拉伯扩张战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E6%9F%B1</t>
@@ -1421,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%B3%95%E7%B6%AD%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>薩法維王朝</t>
+    <t>萨法维王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1433,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿拉伯大起義</t>
+    <t>阿拉伯大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -1451,9 +1430,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>伊斯兰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E5%8F%82%E6%88%98</t>
   </si>
   <si>
@@ -1463,7 +1439,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -1493,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -1511,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -1547,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B8%A6%E7%89%87%E6%88%98%E4%BA%89</t>
@@ -1559,13 +1535,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -1589,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -1625,13 +1601,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -1655,31 +1631,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -1691,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%A5%BF%E5%8C%97%E9%83%A8%E6%88%98%E4%BA%89</t>
@@ -1709,31 +1682,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%89%B9%E7%A7%8D%E4%BD%9C%E6%88%98%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -1751,13 +1724,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍特種部隊</t>
+    <t>美国陆军特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC75%E6%B8%B8%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>第75游騎兵團</t>
+    <t>第75游骑兵团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/95th_Civil_Affairs_Brigade</t>
@@ -1781,13 +1754,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E4%BD%9C%E6%88%B0%E8%88%AA%E7%A9%BA%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國陸軍特種作戰航空司令部</t>
+    <t>美国陆军特种作战航空司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E4%BF%A1%E6%81%AF%E6%94%AF%E6%8F%B4%E4%BD%9C%E6%88%B0%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>軍事信息支援作戰司令部</t>
+    <t>军事信息支援作战司令部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_F._Kennedy_Special_Warfare_Center_and_School</t>
@@ -1805,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%B9%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>海豹部隊</t>
+    <t>海豹部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Special_warfare_combatant-craft_crewmen</t>
@@ -1871,7 +1844,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E7%AC%AC361%E6%83%85%E5%A0%B1%E7%9B%A3%E8%A6%96%E5%81%B5%E5%AF%9F%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍第361情報監視偵察大隊</t>
+    <t>美国空军第361情报监视侦察大队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_Force_Special_Operations_Air_Warfare_Center</t>
@@ -1883,13 +1856,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E7%89%B9%E6%AE%8A%E8%BB%8D%E4%BA%8B%E8%A1%8C%E5%8B%95%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>美國空軍特殊軍事行動學校</t>
+    <t>美国空军特殊军事行动学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%82%98%E9%99%8D%E6%95%91%E6%8F%B4%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國空軍傘降救援隊</t>
+    <t>美国空军伞降救援队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Air_Force_Combat_Control_Team</t>
@@ -1925,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E7%89%B9%E7%A8%AE%E4%BD%9C%E6%88%B0%E7%A0%94%E7%A9%B6%E5%A4%A7%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍特種作戰研究大隊</t>
+    <t>美国海军特种作战研究大队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/24th_Special_Tactics_Squadron</t>
@@ -1949,7 +1922,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B0%E7%88%AA%E8%A1%8C%E5%8A%A8</t>
@@ -1961,13 +1934,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E8%90%8A%C2%B7%E5%8B%9E%E5%80%AB%E8%99%9F</t>
   </si>
   <si>
-    <t>阿基萊·勞倫號</t>
+    <t>阿基莱·劳伦号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波士尼亞戰爭</t>
+    <t>波士尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E8%87%AA%E7%94%B1%E5%86%9B%E4%BA%8B%E8%A1%8C%E5%8A%A8</t>
@@ -1979,19 +1952,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E8%9A%BA%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>森蚺行動</t>
+    <t>森蚺行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%BF%BC%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>紅翼行動</t>
+    <t>红翼行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%A1%85%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E8%99%9F%E5%8A%AB%E6%8C%81%E6%A1%88</t>
   </si>
   <si>
-    <t>快桅阿拉巴馬號劫持案</t>
+    <t>快桅阿拉巴马号劫持案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%90%A8%E9%A9%AC%C2%B7%E6%9C%AC%C2%B7%E6%8B%89%E7%99%BB%E4%B9%8B%E6%AD%BB</t>
@@ -2003,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2015,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4213,7 +4186,7 @@
         <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="G64" t="n">
         <v>12</v>
@@ -4239,10 +4212,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4268,10 +4241,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4297,10 +4270,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4326,10 +4299,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4355,10 +4328,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4384,10 +4357,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4442,10 +4415,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4471,10 +4444,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4529,10 +4502,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4558,10 +4531,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4587,10 +4560,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
         <v>145</v>
-      </c>
-      <c r="F77" t="s">
-        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4616,10 +4589,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" t="s">
         <v>147</v>
-      </c>
-      <c r="F78" t="s">
-        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4645,10 +4618,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4674,10 +4647,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
         <v>151</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4703,10 +4676,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4732,10 +4705,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4761,10 +4734,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4790,10 +4763,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4819,10 +4792,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4848,10 +4821,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4906,10 +4879,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
         <v>165</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4935,10 +4908,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
         <v>167</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4964,10 +4937,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>168</v>
+      </c>
+      <c r="F90" t="s">
         <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>10</v>
@@ -4993,10 +4966,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5022,10 +4995,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5051,10 +5024,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5080,10 +5053,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5109,10 +5082,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5138,10 +5111,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F96" t="s">
         <v>163</v>
-      </c>
-      <c r="F96" t="s">
-        <v>164</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5167,10 +5140,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5196,10 +5169,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5225,10 +5198,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>8</v>
@@ -5254,10 +5227,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5283,10 +5256,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" t="s">
         <v>189</v>
-      </c>
-      <c r="F101" t="s">
-        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5312,10 +5285,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" t="s">
         <v>191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5341,10 +5314,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
         <v>193</v>
-      </c>
-      <c r="F103" t="s">
-        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5370,10 +5343,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
         <v>195</v>
-      </c>
-      <c r="F104" t="s">
-        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5399,10 +5372,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
         <v>197</v>
-      </c>
-      <c r="F105" t="s">
-        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5428,10 +5401,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
-      </c>
-      <c r="F106" t="s">
-        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5457,10 +5430,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5486,10 +5459,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5515,10 +5488,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5544,10 +5517,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5573,10 +5546,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5602,10 +5575,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5631,10 +5604,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5660,10 +5633,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5689,10 +5662,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5718,10 +5691,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5747,10 +5720,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5776,10 +5749,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5805,10 +5778,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5834,10 +5807,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5863,10 +5836,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5892,10 +5865,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5921,10 +5894,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5950,10 +5923,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5979,10 +5952,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6008,10 +5981,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6037,10 +6010,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6066,10 +6039,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6095,10 +6068,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6124,10 +6097,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6153,10 +6126,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6182,10 +6155,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6211,10 +6184,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>222</v>
+      </c>
+      <c r="F133" t="s">
         <v>223</v>
-      </c>
-      <c r="F133" t="s">
-        <v>224</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6240,10 +6213,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -6269,10 +6242,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6298,10 +6271,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6327,10 +6300,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6356,10 +6329,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6385,10 +6358,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6414,10 +6387,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6443,10 +6416,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>220</v>
+      </c>
+      <c r="F141" t="s">
         <v>221</v>
-      </c>
-      <c r="F141" t="s">
-        <v>222</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6472,10 +6445,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6501,10 +6474,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6530,10 +6503,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6588,10 +6561,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6617,10 +6590,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6646,10 +6619,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>262</v>
+      </c>
+      <c r="F148" t="s">
         <v>263</v>
-      </c>
-      <c r="F148" t="s">
-        <v>264</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6675,10 +6648,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>24</v>
@@ -6704,10 +6677,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6733,10 +6706,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6762,10 +6735,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6791,10 +6764,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6820,10 +6793,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6849,10 +6822,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6878,10 +6851,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F156" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6907,10 +6880,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6936,10 +6909,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6965,10 +6938,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6994,10 +6967,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7023,10 +6996,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7052,10 +7025,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7081,10 +7054,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7110,10 +7083,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7139,10 +7112,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7168,10 +7141,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7197,10 +7170,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7226,10 +7199,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7255,10 +7228,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7284,10 +7257,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7313,10 +7286,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7342,10 +7315,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -7371,10 +7344,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -7400,10 +7373,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7429,10 +7402,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>11</v>
@@ -7458,10 +7431,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7487,10 +7460,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7516,10 +7489,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7545,10 +7518,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7574,10 +7547,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7603,10 +7576,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7632,10 +7605,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7661,10 +7634,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7690,10 +7663,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -7719,10 +7692,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7748,10 +7721,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>258</v>
+      </c>
+      <c r="F186" t="s">
         <v>259</v>
-      </c>
-      <c r="F186" t="s">
-        <v>260</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7777,10 +7750,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7806,10 +7779,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7835,10 +7808,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" t="s">
         <v>137</v>
-      </c>
-      <c r="F189" t="s">
-        <v>138</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7864,10 +7837,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7893,10 +7866,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7922,10 +7895,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7951,10 +7924,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7980,10 +7953,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8009,10 +7982,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8038,10 +8011,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8067,10 +8040,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8096,10 +8069,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8125,10 +8098,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8154,10 +8127,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8183,10 +8156,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>144</v>
+      </c>
+      <c r="F201" t="s">
         <v>145</v>
-      </c>
-      <c r="F201" t="s">
-        <v>146</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8212,10 +8185,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8241,10 +8214,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8270,10 +8243,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8299,10 +8272,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8328,10 +8301,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8357,10 +8330,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8386,10 +8359,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8415,10 +8388,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8444,10 +8417,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8473,10 +8446,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8502,10 +8475,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8531,10 +8504,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8560,10 +8533,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8589,10 +8562,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8618,10 +8591,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8647,10 +8620,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8676,10 +8649,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>406</v>
+        <v>229</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8705,10 +8678,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F219" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8734,10 +8707,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F220" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8763,10 +8736,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8792,10 +8765,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8821,10 +8794,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8850,10 +8823,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8879,10 +8852,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8908,10 +8881,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8937,10 +8910,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8966,10 +8939,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F228" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8995,10 +8968,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F229" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9024,10 +8997,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F230" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9053,10 +9026,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9082,10 +9055,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9111,10 +9084,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9140,10 +9113,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9169,10 +9142,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9198,10 +9171,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9227,10 +9200,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9256,10 +9229,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9285,10 +9258,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9314,10 +9287,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9343,10 +9316,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9372,10 +9345,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9401,10 +9374,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9430,10 +9403,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9459,10 +9432,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9488,10 +9461,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9517,10 +9490,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9546,10 +9519,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9575,10 +9548,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9604,10 +9577,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9633,10 +9606,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9662,10 +9635,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G252" t="n">
         <v>5</v>
@@ -9691,10 +9664,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9720,10 +9693,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>118</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9749,10 +9722,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G255" t="n">
         <v>6</v>
@@ -9778,10 +9751,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G256" t="n">
         <v>44</v>
@@ -9807,10 +9780,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9836,10 +9809,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9865,10 +9838,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9894,10 +9867,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9923,10 +9896,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9952,10 +9925,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9981,10 +9954,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10010,10 +9983,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10039,10 +10012,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10068,10 +10041,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10097,10 +10070,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10126,10 +10099,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10155,10 +10128,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10184,10 +10157,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10213,10 +10186,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10242,10 +10215,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10271,10 +10244,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10300,10 +10273,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10329,10 +10302,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10358,10 +10331,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10387,10 +10360,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10416,10 +10389,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10445,10 +10418,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10474,10 +10447,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10503,10 +10476,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10532,10 +10505,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10561,10 +10534,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10590,10 +10563,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10619,10 +10592,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10648,10 +10621,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10677,10 +10650,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10706,10 +10679,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10735,10 +10708,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10764,10 +10737,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10793,10 +10766,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10822,10 +10795,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F292" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10851,10 +10824,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10880,10 +10853,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10909,10 +10882,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -10938,10 +10911,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10967,10 +10940,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10996,10 +10969,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11025,10 +10998,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11054,10 +11027,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11083,10 +11056,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11112,10 +11085,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11141,10 +11114,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11170,10 +11143,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11199,10 +11172,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11228,10 +11201,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11257,10 +11230,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11286,10 +11259,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11315,10 +11288,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11344,10 +11317,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11373,10 +11346,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11402,10 +11375,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11431,10 +11404,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11460,10 +11433,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11489,10 +11462,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11518,10 +11491,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11547,10 +11520,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11576,10 +11549,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11605,10 +11578,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11634,10 +11607,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11663,10 +11636,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11692,10 +11665,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11721,10 +11694,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11750,10 +11723,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11779,10 +11752,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11808,10 +11781,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11837,10 +11810,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11866,10 +11839,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11895,10 +11868,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11924,10 +11897,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11953,10 +11926,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11982,10 +11955,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12011,10 +11984,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12040,10 +12013,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12069,10 +12042,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12098,10 +12071,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12127,10 +12100,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12156,10 +12129,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>34</v>
@@ -12185,10 +12158,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12214,10 +12187,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F340" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12243,10 +12216,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12272,10 +12245,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F342" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12301,10 +12274,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F343" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12330,10 +12303,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F344" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12359,10 +12332,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12388,10 +12361,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12417,10 +12390,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12446,10 +12419,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12475,10 +12448,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12504,10 +12477,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12533,10 +12506,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12562,10 +12535,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12591,10 +12564,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>

--- a/xlsx/伊拉克战争_intext.xlsx
+++ b/xlsx/伊拉克战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
   <si>
     <t>伊拉克战争</t>
   </si>
@@ -29,7 +29,7 @@
     <t>伊拉克战争 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_伊拉克战争</t>
+    <t>体育运动_体育运动_伊朗_伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
@@ -1308,6 +1308,12 @@
   </si>
   <si>
     <t>死侍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%9E%97%E6%81%A9%E7%9A%84%E4%B8%AD%E5%9C%BA%E6%88%98%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>比利林恩的中场战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B0%8F911</t>
@@ -2364,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I353"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9146,7 +9152,7 @@
         <v>438</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9204,7 +9210,7 @@
         <v>442</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9320,7 +9326,7 @@
         <v>450</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9349,7 +9355,7 @@
         <v>452</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9668,7 +9674,7 @@
         <v>474</v>
       </c>
       <c r="G252" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9697,7 +9703,7 @@
         <v>476</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9755,7 +9761,7 @@
         <v>480</v>
       </c>
       <c r="G255" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9784,7 +9790,7 @@
         <v>482</v>
       </c>
       <c r="G256" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9813,7 +9819,7 @@
         <v>484</v>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10016,7 +10022,7 @@
         <v>498</v>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10045,7 +10051,7 @@
         <v>500</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10822,10 +10828,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10851,10 +10857,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10915,7 +10921,7 @@
         <v>558</v>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -10944,7 +10950,7 @@
         <v>560</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12162,7 +12168,7 @@
         <v>644</v>
       </c>
       <c r="G338" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12191,7 +12197,7 @@
         <v>646</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12214,10 +12220,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>535</v>
+        <v>647</v>
       </c>
       <c r="F340" t="s">
-        <v>536</v>
+        <v>648</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12243,10 +12249,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>537</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>538</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12272,10 +12278,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>545</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>546</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12301,10 +12307,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="F343" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12330,10 +12336,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="F344" t="s">
-        <v>550</v>
+        <v>476</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12359,10 +12365,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>551</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>552</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12539,7 +12545,7 @@
         <v>662</v>
       </c>
       <c r="G351" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12568,7 +12574,7 @@
         <v>664</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -12603,6 +12609,35 @@
         <v>4</v>
       </c>
       <c r="I353" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>353</v>
+      </c>
+      <c r="E354" t="s">
+        <v>667</v>
+      </c>
+      <c r="F354" t="s">
+        <v>668</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1</v>
+      </c>
+      <c r="H354" t="s">
+        <v>4</v>
+      </c>
+      <c r="I354" t="n">
         <v>3</v>
       </c>
     </row>
